--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(H)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(H).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(H)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(H).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Haa
-Haageocereus - fam. Cactacées (Cactus)
+          <t>Haa</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Haageocereus - fam. Cactacées (Cactus)
 Haageocereus decumbens
 Haageocereus limensis
 Haageocereus multiangularis
-Haageocereus versicolor
-Har
-Harrisia - fam. Cactacées (Cactus)
+Haageocereus versicolor</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Har</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Harrisia - fam. Cactacées (Cactus)
 Harrisia adscendens
 Harrisia bonplandii
 Harrisia brookii
@@ -532,9 +583,43 @@
 Harrisia martinii
 Harrisia pomanensis
 Harrisia pomanensis
-Harrisia tortuosa
-Hat
-Hatiora - fam. Cactacées (Cactus)
+Harrisia tortuosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ha</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatiora - fam. Cactacées (Cactus)
 Hatiora epiphylloides
 Hatiora gaertneri
 Hatiora hermeniae
@@ -544,34 +629,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>He</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hel
-Heliconia - fam. Héliconiacées
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hel</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconia - fam. Héliconiacées
 Heliconia aurantiaca
 Heliocereus - fam. Cactacées (Cactus)
 Heliocereus aurantiacus
@@ -582,34 +672,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hy</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyl
-Hylocereus - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hyl</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hylocereus - fam. Cactacées (Cactus)
 Hylocereus calcaratus
 Hylocereus costaricensis
 Hylocereus escuintlensis
@@ -621,9 +716,43 @@
 Hylocereus stenopterus
 Hylocereus triangularis
 Hylocereus trigonus
-Hylocereus undatus
-Hyp
-Hyptis
+Hylocereus undatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(H)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hy</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hyp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyptis
 Hyptis conferta
 Hyptis conferta angustifolia
  Portail de l’écologie   Portail de la botanique   Portail de l’Amérique                   </t>
